--- a/documents/assigned_roles_and_responsibilities.xlsx
+++ b/documents/assigned_roles_and_responsibilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PSP TSP\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7EBF8F-9782-4879-9305-EC77540C5D1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67700556-7B65-4C74-AED5-4E4D098EC10A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E4CC57D-1B89-44A1-9C61-D58939CF38F9}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>Acceptance Criteria</t>
   </si>
   <si>
-    <t>Assigned Roles And Responsabilities</t>
-  </si>
-  <si>
     <t>&lt;Company Name&gt;</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>[Deliverable Name + (ID)]</t>
+  </si>
+  <si>
+    <t>Assigned Roles And Responsibilities</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -906,7 +906,7 @@
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1034,7 +1034,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="str">
         <f>General!$B$3</f>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="str">
         <f>General!$B$5</f>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="str">
         <f>General!$B$8</f>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1080,42 +1080,42 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="str">
         <f>General!$B$3</f>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="str">
         <f>General!$B$5</f>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="str">
         <f>General!$B$8</f>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="6" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1233,24 +1233,24 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="str">
         <f>General!$B$3</f>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="str">
         <f>General!$B$5</f>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="str">
         <f>General!$B$8</f>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="6" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1353,30 +1353,30 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="51.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
